--- a/xlsx/databases.xlsx
+++ b/xlsx/databases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku1016\Desktop\CACM\Databases List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku1016\Desktop\CACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7000757-8884-48E1-854F-BF2E433B94E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E14383-5D85-4526-8262-C636523F7C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{3BBF5FEA-6EFB-49EE-8776-427BDB3DE9A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Database</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Payment Request</t>
-  </si>
-  <si>
-    <t>FAM system</t>
   </si>
 </sst>
 </file>
@@ -548,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F0944-0DCF-4BF7-90DB-C0BAD427990F}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,14 +747,6 @@
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
